--- a/biology/Zoologie/Busard_Saint-Martin/Busard_Saint-Martin.xlsx
+++ b/biology/Zoologie/Busard_Saint-Martin/Busard_Saint-Martin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circus cyaneus
 Le Busard Saint-Martin (Circus cyaneus) est une espèce de rapaces diurnes appartenant à la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle a un plumage gris-bleu, les extrémités des ailes noires et le croupion blanc. La femelle est plus grande et ressemble aux juvéniles : le dessus est brun avec le croupion blanc et le dessous jaune-beige rayé de brun.
 Il mesure 103 à 108 cm d'envergure pour une longueur de 47 cm.
@@ -545,7 +559,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Busard Saint-Martin niche au sol, dans les herbes hautes souvent dans les cultures de blé ou d'orge, rarement dans le maïs, trop bas à l'époque où il fait son nid.
@@ -579,9 +595,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rapace se nourrit d'oisillons et d'oiseaux, de petits rongeurs et de grands insectes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rapace se nourrit d'oisillons et d'oiseaux, de petits rongeurs et de grands insectes.
 </t>
         </is>
       </c>
@@ -610,10 +628,12 @@
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Union internationale pour la conservation de la nature classe le busard Saint-Martin comme préoccupation mineure. En Wallonie, l'espèce est jugée en danger critique[2].
-Le Busard Saint-Martin bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est inscrit à l'annexe I de la directive Oiseaux de l'Union européenne[3]. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids et de détruire, altérer ou dégrader leur milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Union internationale pour la conservation de la nature classe le busard Saint-Martin comme préoccupation mineure. En Wallonie, l'espèce est jugée en danger critique.
+Le Busard Saint-Martin bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est inscrit à l'annexe I de la directive Oiseaux de l'Union européenne. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids et de détruire, altérer ou dégrader leur milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Circus cyaneus cyaneus (Linnaeus) 1766
